--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Myl9</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.093071666666666</v>
+        <v>5.009748000000001</v>
       </c>
       <c r="H2">
-        <v>15.279215</v>
+        <v>15.029244</v>
       </c>
       <c r="I2">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="J2">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1059273333333333</v>
+        <v>0.1205896666666667</v>
       </c>
       <c r="N2">
-        <v>0.317782</v>
+        <v>0.361769</v>
       </c>
       <c r="O2">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="P2">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="Q2">
-        <v>0.5394955001255555</v>
+        <v>0.6041238414040001</v>
       </c>
       <c r="R2">
-        <v>4.855459501129999</v>
+        <v>5.437114572636001</v>
       </c>
       <c r="S2">
-        <v>0.0006204707171032076</v>
+        <v>0.0004411163692058737</v>
       </c>
       <c r="T2">
-        <v>0.0006204707171032076</v>
+        <v>0.0004411163692058738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.093071666666666</v>
+        <v>5.009748000000001</v>
       </c>
       <c r="H3">
-        <v>15.279215</v>
+        <v>15.029244</v>
       </c>
       <c r="I3">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="J3">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.165564</v>
       </c>
       <c r="O3">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="P3">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="Q3">
-        <v>0.2810764391399999</v>
+        <v>0.276477972624</v>
       </c>
       <c r="R3">
-        <v>2.52968795226</v>
+        <v>2.488301753616</v>
       </c>
       <c r="S3">
-        <v>0.0003232644196539623</v>
+        <v>0.00020187741501124</v>
       </c>
       <c r="T3">
-        <v>0.0003232644196539623</v>
+        <v>0.00020187741501124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.093071666666666</v>
+        <v>5.009748000000001</v>
       </c>
       <c r="H4">
-        <v>15.279215</v>
+        <v>15.029244</v>
       </c>
       <c r="I4">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="J4">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.495919333333333</v>
+        <v>22.44608266666667</v>
       </c>
       <c r="N4">
-        <v>22.487758</v>
+        <v>67.33824799999999</v>
       </c>
       <c r="O4">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="P4">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="Q4">
-        <v>38.17725437221888</v>
+        <v>112.449217747168</v>
       </c>
       <c r="R4">
-        <v>343.59528934997</v>
+        <v>1012.042959724512</v>
       </c>
       <c r="S4">
-        <v>0.04390744388386816</v>
+        <v>0.0821076528570571</v>
       </c>
       <c r="T4">
-        <v>0.04390744388386816</v>
+        <v>0.0821076528570571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.093071666666666</v>
+        <v>5.009748000000001</v>
       </c>
       <c r="H5">
-        <v>15.279215</v>
+        <v>15.029244</v>
       </c>
       <c r="I5">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="J5">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09296133333333334</v>
+        <v>0.104803</v>
       </c>
       <c r="N5">
-        <v>0.278884</v>
+        <v>0.314409</v>
       </c>
       <c r="O5">
-        <v>0.004544802912008758</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="P5">
-        <v>0.004544802912008757</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="Q5">
-        <v>0.4734587328955555</v>
+        <v>0.5250366196440002</v>
       </c>
       <c r="R5">
-        <v>4.26112859606</v>
+        <v>4.725329576796002</v>
       </c>
       <c r="S5">
-        <v>0.0005445222053754177</v>
+        <v>0.0003833688252051712</v>
       </c>
       <c r="T5">
-        <v>0.0005445222053754176</v>
+        <v>0.0003833688252051713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.093071666666666</v>
+        <v>5.009748000000001</v>
       </c>
       <c r="H6">
-        <v>15.279215</v>
+        <v>15.029244</v>
       </c>
       <c r="I6">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="J6">
-        <v>0.1198120613627983</v>
+        <v>0.1179910219624604</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.70442966666667</v>
+        <v>9.528993</v>
       </c>
       <c r="N6">
-        <v>38.113289</v>
+        <v>28.586979</v>
       </c>
       <c r="O6">
-        <v>0.6211090877692208</v>
+        <v>0.2954208372487103</v>
       </c>
       <c r="P6">
-        <v>0.6211090877692207</v>
+        <v>0.2954208372487104</v>
       </c>
       <c r="Q6">
-        <v>64.70457077645945</v>
+        <v>47.73785362376401</v>
       </c>
       <c r="R6">
-        <v>582.341136988135</v>
+        <v>429.640682613876</v>
       </c>
       <c r="S6">
-        <v>0.07441636013679755</v>
+        <v>0.03485700649598102</v>
       </c>
       <c r="T6">
-        <v>0.07441636013679753</v>
+        <v>0.03485700649598103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>80.125035</v>
       </c>
       <c r="I7">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="J7">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1059273333333333</v>
+        <v>0.1205896666666667</v>
       </c>
       <c r="N7">
-        <v>0.317782</v>
+        <v>0.361769</v>
       </c>
       <c r="O7">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="P7">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="Q7">
-        <v>2.829143763596667</v>
+        <v>3.220750420768333</v>
       </c>
       <c r="R7">
-        <v>25.46229387237</v>
+        <v>28.986753786915</v>
       </c>
       <c r="S7">
-        <v>0.003253782208337903</v>
+        <v>0.002351712735630185</v>
       </c>
       <c r="T7">
-        <v>0.003253782208337903</v>
+        <v>0.002351712735630185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>80.125035</v>
       </c>
       <c r="I8">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="J8">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.165564</v>
       </c>
       <c r="O8">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="P8">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="Q8">
         <v>1.47398014386</v>
@@ -948,10 +948,10 @@
         <v>13.26582129474</v>
       </c>
       <c r="S8">
-        <v>0.0016952162096697</v>
+        <v>0.001076264045183186</v>
       </c>
       <c r="T8">
-        <v>0.0016952162096697</v>
+        <v>0.001076264045183186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>80.125035</v>
       </c>
       <c r="I9">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="J9">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.495919333333333</v>
+        <v>22.44608266666667</v>
       </c>
       <c r="N9">
-        <v>22.487758</v>
+        <v>67.33824799999999</v>
       </c>
       <c r="O9">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="P9">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="Q9">
-        <v>200.2035996468366</v>
+        <v>599.4977197598532</v>
       </c>
       <c r="R9">
-        <v>1801.83239682153</v>
+        <v>5395.479477838679</v>
       </c>
       <c r="S9">
-        <v>0.23025302529976</v>
+        <v>0.4377384889712049</v>
       </c>
       <c r="T9">
-        <v>0.23025302529976</v>
+        <v>0.4377384889712049</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,40 +1042,40 @@
         <v>80.125035</v>
       </c>
       <c r="I10">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="J10">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09296133333333334</v>
+        <v>0.104803</v>
       </c>
       <c r="N10">
-        <v>0.278884</v>
+        <v>0.314409</v>
       </c>
       <c r="O10">
-        <v>0.004544802912008758</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="P10">
-        <v>0.004544802912008757</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="Q10">
-        <v>2.482843362326667</v>
+        <v>2.799114681035</v>
       </c>
       <c r="R10">
-        <v>22.34559026094</v>
+        <v>25.192032129315</v>
       </c>
       <c r="S10">
-        <v>0.002855504079495088</v>
+        <v>0.002043844689558118</v>
       </c>
       <c r="T10">
-        <v>0.002855504079495087</v>
+        <v>0.002043844689558119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>80.125035</v>
       </c>
       <c r="I11">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="J11">
-        <v>0.6283009703127</v>
+        <v>0.6290426028367033</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.70442966666667</v>
+        <v>9.528993</v>
       </c>
       <c r="N11">
-        <v>38.113289</v>
+        <v>28.586979</v>
       </c>
       <c r="O11">
-        <v>0.6211090877692208</v>
+        <v>0.2954208372487103</v>
       </c>
       <c r="P11">
-        <v>0.6211090877692207</v>
+        <v>0.2954208372487104</v>
       </c>
       <c r="Q11">
-        <v>339.3142905655683</v>
+        <v>254.503632546585</v>
       </c>
       <c r="R11">
-        <v>3053.828615090115</v>
+        <v>2290.532692919265</v>
       </c>
       <c r="S11">
-        <v>0.3902434425154374</v>
+        <v>0.1858322923951269</v>
       </c>
       <c r="T11">
-        <v>0.3902434425154374</v>
+        <v>0.1858322923951269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.70742266666667</v>
+        <v>10.339867</v>
       </c>
       <c r="H12">
-        <v>32.122268</v>
+        <v>31.019601</v>
       </c>
       <c r="I12">
-        <v>0.2518869683245017</v>
+        <v>0.2435275136166369</v>
       </c>
       <c r="J12">
-        <v>0.2518869683245017</v>
+        <v>0.2435275136166369</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1059273333333333</v>
+        <v>0.1205896666666667</v>
       </c>
       <c r="N12">
-        <v>0.317782</v>
+        <v>0.361769</v>
       </c>
       <c r="O12">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="P12">
-        <v>0.005178699957631011</v>
+        <v>0.003738558763786432</v>
       </c>
       <c r="Q12">
-        <v>1.134208729952889</v>
+        <v>1.246881114907667</v>
       </c>
       <c r="R12">
-        <v>10.207878569576</v>
+        <v>11.221930034169</v>
       </c>
       <c r="S12">
-        <v>0.001304447032189901</v>
+        <v>0.0009104419202545975</v>
       </c>
       <c r="T12">
-        <v>0.001304447032189901</v>
+        <v>0.0009104419202545976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.70742266666667</v>
+        <v>10.339867</v>
       </c>
       <c r="H13">
-        <v>32.122268</v>
+        <v>31.019601</v>
       </c>
       <c r="I13">
-        <v>0.2518869683245017</v>
+        <v>0.2435275136166369</v>
       </c>
       <c r="J13">
-        <v>0.2518869683245017</v>
+        <v>0.2435275136166369</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.165564</v>
       </c>
       <c r="O13">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="P13">
-        <v>0.002698095800848445</v>
+        <v>0.001710955729118683</v>
       </c>
       <c r="Q13">
-        <v>0.5909212421279999</v>
+        <v>0.5706365799959999</v>
       </c>
       <c r="R13">
-        <v>5.318291179151999</v>
+        <v>5.135729219963999</v>
       </c>
       <c r="S13">
-        <v>0.0006796151715247836</v>
+        <v>0.0004166647946204129</v>
       </c>
       <c r="T13">
-        <v>0.0006796151715247835</v>
+        <v>0.000416664794620413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.70742266666667</v>
+        <v>10.339867</v>
       </c>
       <c r="H14">
-        <v>32.122268</v>
+        <v>31.019601</v>
       </c>
       <c r="I14">
-        <v>0.2518869683245017</v>
+        <v>0.2435275136166369</v>
       </c>
       <c r="J14">
-        <v>0.2518869683245017</v>
+        <v>0.2435275136166369</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.495919333333333</v>
+        <v>22.44608266666667</v>
       </c>
       <c r="N14">
-        <v>22.487758</v>
+        <v>67.33824799999999</v>
       </c>
       <c r="O14">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="P14">
-        <v>0.3664693135602911</v>
+        <v>0.6958805126985015</v>
       </c>
       <c r="Q14">
-        <v>80.26197657723822</v>
+        <v>232.0895094443387</v>
       </c>
       <c r="R14">
-        <v>722.3577891951439</v>
+        <v>2088.805584999048</v>
       </c>
       <c r="S14">
-        <v>0.09230884437666295</v>
+        <v>0.1694660510317366</v>
       </c>
       <c r="T14">
-        <v>0.09230884437666295</v>
+        <v>0.1694660510317366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.70742266666667</v>
+        <v>10.339867</v>
       </c>
       <c r="H15">
-        <v>32.122268</v>
+        <v>31.019601</v>
       </c>
       <c r="I15">
-        <v>0.2518869683245017</v>
+        <v>0.2435275136166369</v>
       </c>
       <c r="J15">
-        <v>0.2518869683245017</v>
+        <v>0.2435275136166369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.09296133333333334</v>
+        <v>0.104803</v>
       </c>
       <c r="N15">
-        <v>0.278884</v>
+        <v>0.314409</v>
       </c>
       <c r="O15">
-        <v>0.004544802912008758</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="P15">
-        <v>0.004544802912008757</v>
+        <v>0.003249135559883043</v>
       </c>
       <c r="Q15">
-        <v>0.9953762876568889</v>
+        <v>1.083649081201</v>
       </c>
       <c r="R15">
-        <v>8.958386588912001</v>
+        <v>9.752841730809001</v>
       </c>
       <c r="S15">
-        <v>0.001144776627138253</v>
+        <v>0.0007912539043017169</v>
       </c>
       <c r="T15">
-        <v>0.001144776627138253</v>
+        <v>0.000791253904301717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.339867</v>
+      </c>
+      <c r="H16">
+        <v>31.019601</v>
+      </c>
+      <c r="I16">
+        <v>0.2435275136166369</v>
+      </c>
+      <c r="J16">
+        <v>0.2435275136166369</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.528993</v>
+      </c>
+      <c r="N16">
+        <v>28.586979</v>
+      </c>
+      <c r="O16">
+        <v>0.2954208372487103</v>
+      </c>
+      <c r="P16">
+        <v>0.2954208372487104</v>
+      </c>
+      <c r="Q16">
+        <v>98.528520263931</v>
+      </c>
+      <c r="R16">
+        <v>886.7566823753789</v>
+      </c>
+      <c r="S16">
+        <v>0.07194310196572357</v>
+      </c>
+      <c r="T16">
+        <v>0.07194310196572358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.400762</v>
+      </c>
+      <c r="H17">
+        <v>1.202286</v>
+      </c>
+      <c r="I17">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="J17">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1205896666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.361769</v>
+      </c>
+      <c r="O17">
+        <v>0.003738558763786432</v>
+      </c>
+      <c r="P17">
+        <v>0.003738558763786432</v>
+      </c>
+      <c r="Q17">
+        <v>0.04832775599266666</v>
+      </c>
+      <c r="R17">
+        <v>0.434949803934</v>
+      </c>
+      <c r="S17">
+        <v>3.528773869577559E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.528773869577559E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.400762</v>
+      </c>
+      <c r="H18">
+        <v>1.202286</v>
+      </c>
+      <c r="I18">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="J18">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.05518799999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.165564</v>
+      </c>
+      <c r="O18">
+        <v>0.001710955729118683</v>
+      </c>
+      <c r="P18">
+        <v>0.001710955729118683</v>
+      </c>
+      <c r="Q18">
+        <v>0.022117253256</v>
+      </c>
+      <c r="R18">
+        <v>0.199055279304</v>
+      </c>
+      <c r="S18">
+        <v>1.614947430384413E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.614947430384414E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>10.70742266666667</v>
-      </c>
-      <c r="H16">
-        <v>32.122268</v>
-      </c>
-      <c r="I16">
-        <v>0.2518869683245017</v>
-      </c>
-      <c r="J16">
-        <v>0.2518869683245017</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.70442966666667</v>
-      </c>
-      <c r="N16">
-        <v>38.113289</v>
-      </c>
-      <c r="O16">
-        <v>0.6211090877692208</v>
-      </c>
-      <c r="P16">
-        <v>0.6211090877692207</v>
-      </c>
-      <c r="Q16">
-        <v>136.0316981799391</v>
-      </c>
-      <c r="R16">
-        <v>1224.285283619452</v>
-      </c>
-      <c r="S16">
-        <v>0.1564492851169859</v>
-      </c>
-      <c r="T16">
-        <v>0.1564492851169859</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.400762</v>
+      </c>
+      <c r="H19">
+        <v>1.202286</v>
+      </c>
+      <c r="I19">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="J19">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.44608266666667</v>
+      </c>
+      <c r="N19">
+        <v>67.33824799999999</v>
+      </c>
+      <c r="O19">
+        <v>0.6958805126985015</v>
+      </c>
+      <c r="P19">
+        <v>0.6958805126985015</v>
+      </c>
+      <c r="Q19">
+        <v>8.995536981658667</v>
+      </c>
+      <c r="R19">
+        <v>80.95983283492799</v>
+      </c>
+      <c r="S19">
+        <v>0.006568319838502837</v>
+      </c>
+      <c r="T19">
+        <v>0.006568319838502837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.400762</v>
+      </c>
+      <c r="H20">
+        <v>1.202286</v>
+      </c>
+      <c r="I20">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="J20">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.104803</v>
+      </c>
+      <c r="N20">
+        <v>0.314409</v>
+      </c>
+      <c r="O20">
+        <v>0.003249135559883043</v>
+      </c>
+      <c r="P20">
+        <v>0.003249135559883043</v>
+      </c>
+      <c r="Q20">
+        <v>0.04200105988600001</v>
+      </c>
+      <c r="R20">
+        <v>0.378009538974</v>
+      </c>
+      <c r="S20">
+        <v>3.066814081803612E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.066814081803612E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.400762</v>
+      </c>
+      <c r="H21">
+        <v>1.202286</v>
+      </c>
+      <c r="I21">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="J21">
+        <v>0.009438861584199355</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.528993</v>
+      </c>
+      <c r="N21">
+        <v>28.586979</v>
+      </c>
+      <c r="O21">
+        <v>0.2954208372487103</v>
+      </c>
+      <c r="P21">
+        <v>0.2954208372487104</v>
+      </c>
+      <c r="Q21">
+        <v>3.818858292666</v>
+      </c>
+      <c r="R21">
+        <v>34.369724633994</v>
+      </c>
+      <c r="S21">
+        <v>0.002788436391878862</v>
+      </c>
+      <c r="T21">
+        <v>0.002788436391878862</v>
       </c>
     </row>
   </sheetData>
